--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H2">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>206.1474229943229</v>
+        <v>80.82199029261865</v>
       </c>
       <c r="R2">
-        <v>1855.326806948906</v>
+        <v>727.3979126335679</v>
       </c>
       <c r="S2">
-        <v>0.06674827680252533</v>
+        <v>0.01732339167989822</v>
       </c>
       <c r="T2">
-        <v>0.06674827680252533</v>
+        <v>0.01732339167989822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H3">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>127.6283332192856</v>
+        <v>46.50410697792444</v>
       </c>
       <c r="R3">
-        <v>1148.65499897357</v>
+        <v>418.53696280132</v>
       </c>
       <c r="S3">
-        <v>0.04132465586921461</v>
+        <v>0.009967693903425785</v>
       </c>
       <c r="T3">
-        <v>0.04132465586921461</v>
+        <v>0.009967693903425785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H4">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>37.05165585582333</v>
+        <v>20.25572835999644</v>
       </c>
       <c r="R4">
-        <v>333.46490270241</v>
+        <v>182.301555239968</v>
       </c>
       <c r="S4">
-        <v>0.01199692019009383</v>
+        <v>0.004341614390729593</v>
       </c>
       <c r="T4">
-        <v>0.01199692019009383</v>
+        <v>0.004341614390729593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.228965</v>
       </c>
       <c r="I5">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J5">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>967.5848901908715</v>
+        <v>1041.10971054574</v>
       </c>
       <c r="R5">
-        <v>8708.264011717843</v>
+        <v>9369.987394911659</v>
       </c>
       <c r="S5">
-        <v>0.3132933855893022</v>
+        <v>0.2231515362617403</v>
       </c>
       <c r="T5">
-        <v>0.3132933855893021</v>
+        <v>0.2231515362617403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.228965</v>
       </c>
       <c r="I6">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J6">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
         <v>599.0433690098916</v>
@@ -818,10 +818,10 @@
         <v>5391.390321089025</v>
       </c>
       <c r="S6">
-        <v>0.1939636791505792</v>
+        <v>0.1283990022645101</v>
       </c>
       <c r="T6">
-        <v>0.1939636791505792</v>
+        <v>0.1283990022645101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.228965</v>
       </c>
       <c r="I7">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J7">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>173.907691116925</v>
+        <v>260.9244762894066</v>
       </c>
       <c r="R7">
-        <v>1565.169220052325</v>
+        <v>2348.32028660466</v>
       </c>
       <c r="S7">
-        <v>0.05630940487226108</v>
+        <v>0.05592657252399437</v>
       </c>
       <c r="T7">
-        <v>0.05630940487226106</v>
+        <v>0.05592657252399438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H8">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>543.1634610733106</v>
+        <v>1433.082267583941</v>
       </c>
       <c r="R8">
-        <v>4888.471149659796</v>
+        <v>12897.74040825547</v>
       </c>
       <c r="S8">
-        <v>0.1758703772384168</v>
+        <v>0.3071669645970179</v>
       </c>
       <c r="T8">
-        <v>0.1758703772384168</v>
+        <v>0.3071669645970179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H9">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>336.2789900328467</v>
+        <v>824.5801772339756</v>
       </c>
       <c r="R9">
-        <v>3026.51091029562</v>
+        <v>7421.221595105781</v>
       </c>
       <c r="S9">
-        <v>0.1088834523544069</v>
+        <v>0.1767405792654506</v>
       </c>
       <c r="T9">
-        <v>0.1088834523544068</v>
+        <v>0.1767405792654507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H10">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>97.62482276434001</v>
+        <v>359.1612261045635</v>
       </c>
       <c r="R10">
-        <v>878.62340487906</v>
+        <v>3232.451034941072</v>
       </c>
       <c r="S10">
-        <v>0.0316098479332002</v>
+        <v>0.07698264511323316</v>
       </c>
       <c r="T10">
-        <v>0.03160984793320019</v>
+        <v>0.07698264511323318</v>
       </c>
     </row>
   </sheetData>
